--- a/data/outputs/OR/53.xlsx
+++ b/data/outputs/OR/53.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ91"/>
+  <dimension ref="A1:BR91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +928,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>7258081</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1148,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1341,6 +1352,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1556,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1755,6 +1768,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1976,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4129155</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2173,6 +2192,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>40198099</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2384,6 +2408,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2595,6 +2620,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2814,6 +2840,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>31694257</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3025,6 +3056,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3244,6 +3276,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>2291754</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3455,6 +3492,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3666,6 +3704,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3869,6 +3908,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4084,6 +4124,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4295,6 +4336,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4510,6 +4552,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>6147096</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4733,6 +4780,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4944,6 +4992,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5155,6 +5204,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5370,6 +5420,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5581,6 +5632,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4300965</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5804,6 +5860,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6023,6 +6080,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6226,6 +6284,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6437,6 +6496,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6640,6 +6700,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6851,6 +6912,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7058,6 +7120,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7277,6 +7340,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7484,6 +7548,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7695,6 +7760,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7902,6 +7968,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8109,6 +8176,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8320,6 +8388,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8531,6 +8600,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8746,6 +8816,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8953,6 +9024,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9164,6 +9236,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9367,6 +9440,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>6561233</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9590,6 +9668,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9805,6 +9884,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10008,6 +10088,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10227,6 +10308,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10442,6 +10524,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10653,6 +10736,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10864,6 +10948,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11075,6 +11160,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11286,6 +11372,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11489,6 +11576,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11692,6 +11780,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11907,6 +11996,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12110,6 +12200,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12321,6 +12412,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12528,6 +12620,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12739,6 +12832,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12950,6 +13044,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13161,6 +13256,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13384,6 +13480,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4636852</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13595,6 +13696,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13806,6 +13908,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14017,6 +14120,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14240,6 +14344,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14459,6 +14564,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14670,6 +14776,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14885,6 +14992,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>5625892</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15108,6 +15220,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15315,6 +15428,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15518,6 +15632,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15721,6 +15836,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>3891689</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15932,6 +16052,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16131,6 +16252,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16338,6 +16460,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16549,6 +16672,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16760,6 +16884,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16979,6 +17104,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17186,6 +17312,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17393,6 +17520,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17608,6 +17736,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17803,6 +17932,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18018,6 +18148,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18225,6 +18356,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18432,6 +18564,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18639,6 +18772,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18830,6 +18964,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>51051837</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19021,6 +19160,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19216,6 +19356,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19407,6 +19548,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19594,6 +19736,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
